--- a/.idea/files/Evaluation/Round4/ROUND4_V15_155_156_CEA.xlsx
+++ b/.idea/files/Evaluation/Round4/ROUND4_V15_155_156_CEA.xlsx
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="CEA" sheetId="2" r:id="rId1"/>
     <sheet name="Results" sheetId="1" r:id="rId2"/>
+    <sheet name="Results with add column" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="309">
   <si>
     <t>http://dbpedia.org/ontology/Person http://dbpedia.org/ontology/WinterSportPlayer http://dbpedia.org/ontology/Athlete http://dbpedia.org/ontology/FigureSkater</t>
   </si>
@@ -851,13 +852,109 @@
   </si>
   <si>
     <t xml:space="preserve">F1 </t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/ontology/coach</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dbpedia.org/resource/Dalilah_Sappenfield </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dbpedia.org/resource/David_Pelletier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dbpedia.org/resource/Jean-François_Ballester http://dbpedia.org/resource/Alexander_König </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dbpedia.org/resource/Laureano_Ibarra http://dbpedia.org/resource/Dalilah_Sappenfield </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dbpedia.org/resource/Patrice_Lauzon http://dbpedia.org/resource/Romain_Haguenauer http://dbpedia.org/resource/Marie-France_Dubreuil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dbpedia.org/resource/Anjelika_Krylova http://dbpedia.org/resource/Pasquale_Camerlengo http://dbpedia.org/resource/Natalia_Annenko </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dbpedia.org/resource/Tamara_Moskvina </t>
+  </si>
+  <si>
+    <t>Add column</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","0"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","1"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","2"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","3"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","4"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","5"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","6"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","7"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","8"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","9"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","10"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","11"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","12"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","13"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","14"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","15"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","16"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","17"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","18"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","19"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","20"</t>
+  </si>
+  <si>
+    <t>v15_155_156,"9","21"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +975,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -922,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -931,6 +1041,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1234,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:B96"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3147,12 +3261,500 @@
         <v>0.96590909090909094</v>
       </c>
     </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>287</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>288</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>289</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>291</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>292</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>293</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>294</v>
+      </c>
+      <c r="B108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>295</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>296</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>297</v>
+      </c>
+      <c r="B111" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>298</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>299</v>
+      </c>
+      <c r="B113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>300</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>301</v>
+      </c>
+      <c r="B115" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>302</v>
+      </c>
+      <c r="B116" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>304</v>
+      </c>
+      <c r="B118" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>305</v>
+      </c>
+      <c r="B119" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>306</v>
+      </c>
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>307</v>
+      </c>
+      <c r="B121" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>308</v>
+      </c>
+      <c r="B122" t="s">
+        <v>75</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <f xml:space="preserve"> SUM(C35:C122)</f>
+        <v>150</v>
+      </c>
+      <c r="D124">
+        <f>SUM(D35:D122)</f>
+        <v>146</v>
+      </c>
+      <c r="E124">
+        <f>SUM(E35:E122)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>274</v>
+      </c>
+      <c r="B127" s="5">
+        <f xml:space="preserve"> D124/C124</f>
+        <v>0.97333333333333338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>275</v>
+      </c>
+      <c r="B128" s="5">
+        <f xml:space="preserve"> D124/E124</f>
+        <v>0.97333333333333338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="5">
+        <f xml:space="preserve"> (2*B127*B128)/(B127+B128)</f>
+        <v>0.97333333333333338</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B34" r:id="rId1"/>
+    <hyperlink ref="B109" r:id="rId2"/>
+    <hyperlink ref="B101" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3160,8 +3762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3646,4 +4248,562 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="67.77734375" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>